--- a/docs/shrcore/shr-core-RadiationProcedure-model.xlsx
+++ b/docs/shrcore/shr-core-RadiationProcedure-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -220,10 +220,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-RadiationProcedure-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-RadiationProcedure-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -442,10 +442,6 @@
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
-  </si>
-  <si>
     <t>shr-core-RadiationProcedure-model.participation.participationPeriod</t>
   </si>
   <si>
@@ -472,6 +468,47 @@
     <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
   </si>
   <si>
+    <t>shr-core-RadiationProcedure-model.procedurePartOf[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.procedurePartOfShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
+Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
+FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
+SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.procedurePartOfShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
     <t>shr-core-RadiationProcedure-model.code</t>
   </si>
   <si>
@@ -482,6 +519,32 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/shrcore/shr/core/vs/RadiationProcedureVS</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.personAuthor[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.personInformationSource[x]</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
   </si>
   <si>
     <t>shr-core-RadiationProcedure-model.bodyLocation</t>
@@ -570,45 +633,34 @@
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>shr-core-RadiationProcedure-model.procedurePartOf[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
-</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular procedure is a component or step.</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.procedurePartOfShr-core-Procedure-model</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
-  </si>
-  <si>
-    <t>MedicationAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
-</t>
-  </si>
-  <si>
-    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
-  </si>
-  <si>
-    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
-Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
-FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
-SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.procedurePartOfShr-core-Observation-model</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.category</t>
-  </si>
-  <si>
-    <t>The general type or class of this item.</t>
+    <t>shr-core-RadiationProcedure-model.outcome</t>
+  </si>
+  <si>
+    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.diagnosticReport</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.complicationCode</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a code.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.complicationReference</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a reference to a Condition.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.followUp</t>
+  </si>
+  <si>
+    <t>Instructions for follow up.</t>
   </si>
   <si>
     <t>shr-core-RadiationProcedure-model.annotation</t>
@@ -621,6 +673,16 @@
     <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
+    <t>shr-core-RadiationProcedure-model.focalDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Activity involving a device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+  </si>
+  <si>
     <t>shr-core-RadiationProcedure-model.treatmentIntent</t>
   </si>
   <si>
@@ -637,46 +699,70 @@
 </t>
   </si>
   <si>
-    <t>shr-core-RadiationProcedure-model.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
-</t>
-  </si>
-  <si>
-    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.outcome</t>
-  </si>
-  <si>
-    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.diagnosticReport</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.materialUsed[x]</t>
+    <t>shr-core-RadiationProcedure-model.materialUsedReference[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
 </t>
   </si>
   <si>
-    <t>Items used during procedure</t>
-  </si>
-  <si>
-    <t>shr-core-RadiationProcedure-model.focalDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
+    <t>Identifies medications, devices and any other substance used as part of the procedure.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.materialUsedReferenceShr-core-Device-model</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
-    <t>A device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.</t>
+  </si>
+  <si>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.
+Device status cannot be reconciled between Argonaut and US-Core, each having different required value sets.
+Device type has extensible mappings to different value sets in Argonaut and US-Core, however both value sets have identical SNOMED content (descendants of 49062001 (Device). We adopt the US-Core value set, which is allowable because the binding is extensible.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.materialUsedReferenceShr-core-Medication-model</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}
+</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.
+In FHIR DSTU2 and STU3, Medication lacks the identifier attribute, which is included in SHR as an extension.
+DSTU2 lacks the status attribute, which is required by US-Core.
+Batch is 0..1 in FHIR R4, and accordingly is restricted here.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.materialUsedReferenceShr-core-Substance-model</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
+</t>
+  </si>
+  <si>
+    <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+  </si>
+  <si>
+    <t>shr-core-RadiationProcedure-model.usedCode</t>
+  </si>
+  <si>
+    <t>Item used during an activity, represented as a code.</t>
   </si>
   <si>
     <t>shr-core-RadiationProcedure-model.radiationDosePerFraction</t>
@@ -1067,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ72"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3720,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -3752,7 +3838,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3775,13 +3861,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3832,7 +3918,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3849,7 +3935,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3872,13 +3958,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3929,7 +4015,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3946,7 +4032,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3972,10 +4058,10 @@
         <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4026,7 +4112,7 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -4043,7 +4129,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4051,7 +4137,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -4066,7 +4152,7 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>141</v>
@@ -4099,32 +4185,32 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -4138,18 +4224,20 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>36</v>
@@ -4161,13 +4249,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4218,13 +4306,13 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>36</v>
@@ -4235,9 +4323,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
@@ -4258,13 +4348,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4291,11 +4381,13 @@
         <v>36</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>36</v>
@@ -4313,10 +4405,10 @@
         <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>41</v>
@@ -4330,15 +4422,17 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>41</v>
@@ -4353,13 +4447,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4386,11 +4480,13 @@
         <v>36</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>36</v>
@@ -4408,7 +4504,7 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
@@ -4425,7 +4521,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4451,10 +4547,10 @@
         <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4481,11 +4577,13 @@
         <v>36</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>36</v>
@@ -4503,7 +4601,7 @@
         <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
@@ -4520,7 +4618,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4528,10 +4626,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>36</v>
@@ -4543,13 +4641,13 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4576,13 +4674,11 @@
         <v>36</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>36</v>
@@ -4600,13 +4696,13 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>36</v>
@@ -4617,7 +4713,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4640,13 +4736,13 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4685,17 +4781,19 @@
         <v>36</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
@@ -4712,17 +4810,15 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>41</v>
@@ -4737,13 +4833,13 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4794,7 +4890,7 @@
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
@@ -4811,17 +4907,15 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>41</v>
@@ -4836,13 +4930,13 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4893,7 +4987,7 @@
         <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
@@ -4910,20 +5004,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>36</v>
@@ -4935,13 +5027,13 @@
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4992,13 +5084,13 @@
         <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>36</v>
@@ -5009,7 +5101,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5017,7 +5109,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>41</v>
@@ -5035,10 +5127,10 @@
         <v>45</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5065,13 +5157,11 @@
         <v>36</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>36</v>
@@ -5089,10 +5179,10 @@
         <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>41</v>
@@ -5106,7 +5196,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5117,7 +5207,7 @@
         <v>37</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>36</v>
@@ -5129,13 +5219,13 @@
         <v>36</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5162,13 +5252,11 @@
         <v>36</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>36</v>
@@ -5186,13 +5274,13 @@
         <v>36</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>36</v>
@@ -5203,7 +5291,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5229,10 +5317,10 @@
         <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5259,14 +5347,14 @@
         <v>36</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>36</v>
@@ -5281,7 +5369,7 @@
         <v>36</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>37</v>
@@ -5298,7 +5386,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5309,7 +5397,7 @@
         <v>37</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>36</v>
@@ -5321,13 +5409,13 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5378,13 +5466,13 @@
         <v>36</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>36</v>
@@ -5395,7 +5483,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5421,10 +5509,10 @@
         <v>45</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5455,7 +5543,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>36</v>
@@ -5473,7 +5561,7 @@
         <v>36</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>37</v>
@@ -5490,7 +5578,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5570,7 +5658,7 @@
         <v>36</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>37</v>
@@ -5587,7 +5675,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5610,13 +5698,13 @@
         <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5667,7 +5755,7 @@
         <v>36</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>37</v>
@@ -5684,7 +5772,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5695,7 +5783,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>36</v>
@@ -5707,13 +5795,13 @@
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5764,13 +5852,13 @@
         <v>36</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>36</v>
@@ -5781,7 +5869,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5792,7 +5880,7 @@
         <v>37</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>36</v>
@@ -5804,13 +5892,13 @@
         <v>36</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5861,13 +5949,13 @@
         <v>36</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>36</v>
@@ -5878,7 +5966,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5889,7 +5977,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>36</v>
@@ -5901,13 +5989,13 @@
         <v>36</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5943,7 +6031,7 @@
         <v>36</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>36</v>
@@ -5958,13 +6046,13 @@
         <v>36</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>36</v>
@@ -5975,7 +6063,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5986,7 +6074,7 @@
         <v>37</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>36</v>
@@ -5998,13 +6086,13 @@
         <v>36</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6055,13 +6143,13 @@
         <v>36</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>36</v>
@@ -6072,7 +6160,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6098,10 +6186,10 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6128,14 +6216,14 @@
         <v>36</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>36</v>
@@ -6150,7 +6238,7 @@
         <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>37</v>
@@ -6167,7 +6255,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6178,7 +6266,7 @@
         <v>37</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>36</v>
@@ -6190,13 +6278,13 @@
         <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6232,28 +6320,26 @@
         <v>36</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>36</v>
@@ -6264,15 +6350,17 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>41</v>
@@ -6287,13 +6375,13 @@
         <v>36</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6344,13 +6432,13 @@
         <v>36</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>36</v>
@@ -6361,18 +6449,20 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>36</v>
@@ -6384,17 +6474,15 @@
         <v>36</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>36</v>
@@ -6431,19 +6519,19 @@
         <v>36</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>37</v>
@@ -6460,9 +6548,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>36</v>
       </c>
@@ -6480,29 +6570,25 @@
         <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>36</v>
@@ -6544,13 +6630,13 @@
         <v>36</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>36</v>
@@ -6561,7 +6647,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6572,7 +6658,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>36</v>
@@ -6581,20 +6667,18 @@
         <v>36</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>36</v>
@@ -6643,13 +6727,13 @@
         <v>36</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>36</v>
@@ -6660,7 +6744,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6668,7 +6752,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>41</v>
@@ -6680,27 +6764,25 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>36</v>
@@ -6742,7 +6824,7 @@
         <v>36</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>37</v>
@@ -6759,7 +6841,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6779,21 +6861,19 @@
         <v>36</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>36</v>
       </c>
@@ -6826,7 +6906,7 @@
         <v>36</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>36</v>
@@ -6841,7 +6921,7 @@
         <v>36</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>37</v>
@@ -6858,7 +6938,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6878,23 +6958,19 @@
         <v>36</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>36</v>
       </c>
@@ -6942,7 +7018,7 @@
         <v>36</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>37</v>
@@ -6959,7 +7035,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6982,13 +7058,13 @@
         <v>36</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7015,16 +7091,14 @@
         <v>36</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>36</v>
@@ -7039,7 +7113,7 @@
         <v>36</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>37</v>
@@ -7056,7 +7130,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7079,13 +7153,13 @@
         <v>36</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7121,7 +7195,7 @@
         <v>36</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>36</v>
@@ -7136,7 +7210,7 @@
         <v>36</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>37</v>
@@ -7153,7 +7227,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7176,13 +7250,13 @@
         <v>36</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7209,11 +7283,13 @@
         <v>36</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>36</v>
@@ -7231,7 +7307,7 @@
         <v>36</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>37</v>
@@ -7248,7 +7324,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7259,7 +7335,7 @@
         <v>37</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>36</v>
@@ -7271,15 +7347,17 @@
         <v>36</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>36</v>
@@ -7313,28 +7391,28 @@
         <v>36</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>36</v>
@@ -7345,7 +7423,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7353,7 +7431,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>41</v>
@@ -7365,25 +7443,29 @@
         <v>36</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>36</v>
@@ -7425,7 +7507,7 @@
         <v>36</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>37</v>
@@ -7442,7 +7524,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7453,7 +7535,7 @@
         <v>37</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>36</v>
@@ -7462,19 +7544,19 @@
         <v>36</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -7512,25 +7594,25 @@
         <v>36</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>36</v>
@@ -7541,7 +7623,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7561,29 +7643,27 @@
         <v>36</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>36</v>
@@ -7625,7 +7705,7 @@
         <v>36</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>37</v>
@@ -7642,7 +7722,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7662,21 +7742,21 @@
         <v>36</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>36</v>
       </c>
@@ -7724,7 +7804,7 @@
         <v>36</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>37</v>
@@ -7741,7 +7821,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7749,7 +7829,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>41</v>
@@ -7761,27 +7841,29 @@
         <v>36</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>36</v>
@@ -7823,7 +7905,7 @@
         <v>36</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>37</v>
@@ -7840,7 +7922,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7860,21 +7942,19 @@
         <v>36</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>36</v>
       </c>
@@ -7907,7 +7987,7 @@
         <v>36</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>36</v>
@@ -7922,7 +8002,7 @@
         <v>36</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>37</v>
@@ -7939,7 +8019,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7959,23 +8039,19 @@
         <v>36</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>36</v>
       </c>
@@ -8023,7 +8099,7 @@
         <v>36</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>37</v>
@@ -8040,7 +8116,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8051,7 +8127,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>36</v>
@@ -8066,10 +8142,10 @@
         <v>45</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8096,45 +8172,932 @@
         <v>36</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG72" t="s" s="2">
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI72" t="s" s="2">
+      <c r="G81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X81" s="2"/>
+      <c r="Y81" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI72">
+  <autoFilter ref="A1:AI81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8144,7 +9107,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
